--- a/excel/vendorNewThisYear.xlsx
+++ b/excel/vendorNewThisYear.xlsx
@@ -14,330 +14,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>Banh Minn Bun and Banh Minn Bowl</t>
-  </si>
-  <si>
-    <t>Bison Bites</t>
-  </si>
-  <si>
-    <t>Blue Raspberry Blitzed</t>
-  </si>
-  <si>
-    <t>Buffalo Chicken Doughscuit</t>
-  </si>
-  <si>
-    <t>Caramelized Banana Pudding</t>
-  </si>
-  <si>
-    <t>ChoriPop</t>
-  </si>
-  <si>
-    <t>Cracklin Prime Nachos</t>
-  </si>
-  <si>
-    <t>Cucumber Jalapeño Limeade</t>
-  </si>
-  <si>
-    <t>Dual Berry Shortcake</t>
-  </si>
-  <si>
-    <t>Esquites</t>
-  </si>
-  <si>
-    <t>Fudge &amp; Fruit!</t>
-  </si>
-  <si>
-    <t>Greek Stuffed Ravioli</t>
-  </si>
-  <si>
-    <t>Island Hopper</t>
-  </si>
-  <si>
-    <t>Jumbo Donut Sundae</t>
-  </si>
-  <si>
-    <t>Kerala Fried Chicken Kati Roll</t>
-  </si>
-  <si>
-    <t>La Floretta</t>
-  </si>
-  <si>
-    <t>The Naughty Biscuit</t>
-  </si>
-  <si>
-    <t>Nordic Waffles – Chicken &amp; Macaroni Nordic Waffle and I-Scream Waffle Sandwich</t>
-  </si>
-  <si>
-    <t>Paneer Pakora</t>
-  </si>
-  <si>
-    <t>Pizza Lucy</t>
-  </si>
-  <si>
-    <t>Sashimi Tuna Tacos</t>
-  </si>
-  <si>
-    <t>Sidecar Sandwich</t>
-  </si>
-  <si>
-    <t>S’Mores Funnel Cake</t>
-  </si>
-  <si>
-    <t>Summer Lakes Beverages in 3 varieties: Wedge-Hammer, Lake Storm Lemonade and Bama! Lemon Sweet Tea</t>
-  </si>
-  <si>
-    <t>Waffle Burger</t>
-  </si>
-  <si>
-    <t>Variety of Hummus Bowls</t>
-  </si>
-  <si>
-    <t>Blueberry Mini Donuts, Cajun Cheese Curds</t>
-  </si>
-  <si>
-    <t>Gluten-Free Corndogs, Funnel Cakes and Cheese Curds</t>
-  </si>
-  <si>
-    <t>Banana Split On-A-Stick and Ice Cream Creations</t>
-  </si>
-  <si>
-    <t>Hand-Spun Cotton Candy with Toppings, Fresh-Pressed Watermelon Juice</t>
-  </si>
-  <si>
-    <t>banh-minn-bowl</t>
-  </si>
-  <si>
-    <t>bison-bites</t>
-  </si>
-  <si>
-    <t>blue-raspberry-blitzed</t>
-  </si>
-  <si>
-    <t>buffalo-chicken-doughscuit</t>
-  </si>
-  <si>
-    <t>caramelized-banana-pudding</t>
-  </si>
-  <si>
-    <t>choripop</t>
-  </si>
-  <si>
-    <t>cracklin-prime-nachos</t>
-  </si>
-  <si>
-    <t>cucumber-jalapeno-limeade</t>
-  </si>
-  <si>
-    <t>dual-berry-shortcake</t>
-  </si>
-  <si>
-    <t>esquites</t>
-  </si>
-  <si>
-    <t>fudge-fruit</t>
-  </si>
-  <si>
-    <t>greek-stuffed-ravioli</t>
-  </si>
-  <si>
-    <t>island-hopper</t>
-  </si>
-  <si>
-    <t>jumbo-donut-sundae</t>
-  </si>
-  <si>
-    <t>kerala-fried-chicken-kati-roll</t>
-  </si>
-  <si>
-    <t>la-floretta</t>
-  </si>
-  <si>
-    <t>naughty-biscuit</t>
-  </si>
-  <si>
-    <t>nordic-i-scream-waffle-sandwich</t>
-  </si>
-  <si>
-    <t>paneer-pakora</t>
-  </si>
-  <si>
-    <t>pizza-lucy</t>
-  </si>
-  <si>
-    <t>sashimi-tuna-tacos</t>
-  </si>
-  <si>
-    <t>sidecar-sandwich</t>
-  </si>
-  <si>
-    <t>smores-funnel-cake</t>
-  </si>
-  <si>
-    <t>summer-lakes-beverage</t>
-  </si>
-  <si>
-    <t>waffle-burger</t>
-  </si>
-  <si>
-    <t>hummus-bowls</t>
-  </si>
-  <si>
-    <t>blueberry-mini-donuts-and-cajun-cheese-curds</t>
-  </si>
-  <si>
-    <t>auntiems</t>
-  </si>
-  <si>
-    <t>libbys</t>
-  </si>
-  <si>
-    <t>spinning-wylde</t>
-  </si>
-  <si>
-    <t>Inspired by Vietnamese cuisine, a sausage made with a variety of Asian seasonings, served in a crusty baguette smeared with a Sriracha sauce and topped with shredded and pickled carrot, radish, chopped jalapeño and a sprig of fresh cilantro. The bun-less bowl starts with a five-grain blend and is topped with shredded and pickled carrot, radish, Asian slaw, chopped jalapeño, sausage slices, cilantro and a drizzle of Sriracha sauce.</t>
-  </si>
-  <si>
-    <t>A North Woods spin on ravioli with ground bison, braised fennel, portobello mushrooms and fresh basil wrapped in classic egg dough, deep-fried and served with a sweet bourbon sauce with a little kick.</t>
-  </si>
-  <si>
-    <t>Traditional hand pie filled with a raspberry, blueberry and apple blend infused with UV Blue Vodka and topped with cotton candy sugar.</t>
-  </si>
-  <si>
-    <t>Fluffy biscuit-style doughnuts stuffed with shredded chicken, glazed with a sweet &amp; spicy buffalo icing, and topped with crispy bacon bits.</t>
-  </si>
-  <si>
-    <t>Layers of homemade vanilla pudding, fresh bananas, toasted 'nilla wafers, caramelized cocoa crispy cereal, caramel sauce and fresh whipped cream.</t>
-  </si>
-  <si>
-    <t>Chorizo by The Herbivorous Butcher dipped in a classic corndog batter, deep-fried on-a-stick with choice of avocado salsa or mole sauce drizzled on top or on the side. Served with Mexican BBQ chips. (Vegan) (Aug. 26-31 only) *New vendor</t>
-  </si>
-  <si>
-    <t>Deep-fried chicharrón covered in prime rib slices, ¡Que Bueno! nacho cheese, pico de gallo and green onion slices.</t>
-  </si>
-  <si>
-    <t>Limeade made with juiced Minnesota-grown cucumbers and jalapeño syrup, served with a cucumber slice.</t>
-  </si>
-  <si>
-    <t>Strawberries and blueberries over a sugar-coated Betty &amp; Earl’s biscuit, topped with whipped cream and balsamic glaze.</t>
-  </si>
-  <si>
-    <t>Mexican street corn off-the-cob topped with mayonnaise, Cotija cheese and pequin chile powder. (Sept. 1-6)</t>
-  </si>
-  <si>
-    <t>Fresh strawberries and fudge brownies dipped in wine-infused dark chocolate, drizzled with wine-infused white chocolate and served on-a-stick.</t>
-  </si>
-  <si>
-    <t>Mediterranean pastry dough stuffed with cream cheese, tzatziki sauce, mozzarella cheese, pepperoncini, tomato, gyro meat and Dino’s Greek seasoning, deep-fried and drizzled with roasted garlic butter.</t>
-  </si>
-  <si>
-    <t>Hollowed-out half-pineapple filled with charbroiled chicken glazed with teriyaki sauce and served with steamy white rice and pineapple chunks, topped with green onions and sesame seeds.</t>
-  </si>
-  <si>
-    <t>A jumbo frosted yeast-raised donut available in a variety of flavors, topped with vanilla soft-serve ice cream, hot fudge and blend of sprinkles. *New Vendor</t>
-  </si>
-  <si>
-    <t>Marinated, battered and fried chicken tenders wrapped in paratha (layered flatbread) with chutneys and slaw.</t>
-  </si>
-  <si>
-    <t>Oven-roasted cauliflower florets seasoned with Iron Range herbs and spices and served with Calabrian sweet chili sauce. (Gluten-free, vegan)</t>
-  </si>
-  <si>
-    <t>Smoked pork belly topped with beer cheese sauce, arugula, pickled red onions and candied jalapeños served on a buttermilk biscuit.</t>
-  </si>
-  <si>
-    <t>Two new fresh-made waffle wraps: A Southern-fried spicy chicken drummy and cheesy macaroni, finished with a drizzle of honey on a warm Nordic waffle; and a classic ice cream cookie sandwich, crunchy kettle corn and chocolate drizzle dusted with sprinkles all wrapped in a Nordic waffle.</t>
-  </si>
-  <si>
-    <t>Seasoned paneer cheese cubes fried in a gluten-free batter and served with tomato butter. (Gluten-free)</t>
-  </si>
-  <si>
-    <t>Sausage patty topped with pizza sauce, pepperoni and mozzarella cheese, stuffed in homemade Green Mill pizza dough, and topped with Italian seasonings, cheese and crumbled pepperoni.</t>
-  </si>
-  <si>
-    <t>Crisp wonton shells filled with ahi tuna, avocado and sesame soy. Thai slaw with peanut dressing, pickled ginger and wasabi served on the side. *New Vendor</t>
-  </si>
-  <si>
-    <t>Thick-cut cognac-infused bacon smothered with Cointreau and citrus marmalade, layered with melted havarti, smoked Gouda and aged cheddar, served on toasted sourdough bread and garnished with fresh orange slices.</t>
-  </si>
-  <si>
-    <t>Graham cracker funnel cake topped with marshmallow, milk chocolate chunks and more graham cracker bits.</t>
-  </si>
-  <si>
-    <t>These 2021 State Fair-exclusive mocktails are all gluten-free and vegan. *New vendor</t>
-  </si>
-  <si>
-    <t>Quarter-pound bacon cheeseburger served between two maple-infused candied sweet crunch waffles with a side of maple syrup.</t>
-  </si>
-  <si>
-    <t>The selection includes: Hummus bi lahme (minced beef shawarma, lemon sauce, parsley, pine nuts, sumac); Chili Baba (garlic chili oil, kimchi, scallions, za’atar); Falafelicious (falafel, fried eggplant, warm chickpeas, pickled cabbage, Arabic pickles, tahini, sumac); Dilly Dilly (dill pickle hummus, dill pickles, cheese curds, crispy onions; Truffle (truffle hummus, roasted wild mushrooms, pine nuts); and more. *New Vendor</t>
-  </si>
-  <si>
-    <t>Featuring brand-new blueberry mini donuts, plus classic cheese curds in Cajun (new to the fair!), ranch, garlic and original flavors. *New Vendor</t>
-  </si>
-  <si>
-    <t>Serving gluten-free corndogs, funnel cakes and cheese curds. Funnel cakes are available in strawberries and cream and apple pie flavors or with powdered sugar, cinnamon or chocolate topping choices. *New Vendor</t>
-  </si>
-  <si>
-    <t>Soft serve ice cream in a variety of flavors served in cones and cups and as shakes, sundaes and floats. Plus, banana split on-a-stick, frozen banana on-a-stick and cheesecake on-a-stick - all dipped in chocolate. *New Vendor</t>
-  </si>
-  <si>
-    <t>More than 30 dye-free and natural flavors of handspun cotton candy clouds made with organic cane sugar, plus fresh-pressed watermelon juice. *New Vendor</t>
-  </si>
-  <si>
-    <t>Chorizo by The Herbivorous Butcher dipped in a classic corndog batter, deep-fried on-a-stick with choice of avocado salsa or mole sauce drizzled on top or on the side. Served with Mexican BBQ chips. (Vegan). This new vendor is also serving deep-fried cheese or chicken tamales and horchata soft-serve milkshakes and cones. (At the fair Aug. 26-31 only)</t>
-  </si>
-  <si>
-    <t>Mexican street corn off-the-cob topped with mayonnaise, Cotija cheese and pequin chile powder. Returning to the Midtown Global Market booth for the first time since 2013, Los Ocampo’s new menu also includes Mango On-a-Stick; Elote; Mexican Tacos with an al pastor, carne asada or veggie option; Coca Mexicana; and Aqua de Horchata. (At the fair Sept. 1-6 only)</t>
-  </si>
-  <si>
-    <t>A jumbo frosted yeast-raised donut available in a variety of flavors, topped with vanilla soft-serve ice cream, hot fudge and blend of sprinkles. Specializing in hand-cut, yeast-raised donuts, Fluffy’s menu options also include a variety of icings, butter cream frostings, fillings and toppings.</t>
-  </si>
-  <si>
-    <t>Marinated, battered and fried chicken tenders wrapped in paratha with chutneys and slaw. A fan favorite in the Midtown Global Market booth in years past, Hot Indian has a new home of its own in the Food Building and will be at the fair all 12 days! Their menu will also include Paneer Pakora (new food in 2021, gluten-free), Butter Chicken Samosas (halal), Sweet Veg Samosas (vegan), Bhel Puri (vegan) and Mango Lassi.</t>
-  </si>
-  <si>
-    <t>Seasoned paneer cheese cubes fried in a gluten-free batter and served with tomato butter. (Gluten-free). A fan favorite in the Midtown Global Market booth in years past, Hot Indian has a new home of its own in the Food Building and will be at the fair all 12 days! Their menu will also include the Kerala Fried Chicken Kati Roll (new food in 2021), Butter Chicken Samosas (halal), Sweet Veg Samosas (vegan), Bhel Puri (vegan) and Mango Lassi.</t>
-  </si>
-  <si>
-    <t>Crisp wonton shells filled with ahi tuna, avocado and sesame soy. Thai slaw with peanut dressing, pickled ginger and wasabi served on the side.</t>
-  </si>
-  <si>
-    <t>The Wedge-Hammer (gf, v) is fresh ginger, orange and other citrus juices, zest, sparkling water and simple syrup. Lake Storm Lemonade (gf, v) is lavender-infused lemon and other citrus juices, zest, sparkling water and simple syrup. Bama! Lemon Sweet Tea (gf, v) is fresh brewed tea, fresh lemon and other citrus juices, zest, sparkling water and simple syrup. Debuting their mocktails at this year’s fair, Summer Lakes Beverage’s new menu also features the Bootleg (gf), Luna Paloma (gf), Fresh Press Margarita (gf, v) and Fresh Press Jalapeño Margarita (gf, v). Mixes by the bottle to make cocktails at home will also be for sale. gf (gluten-free); v (vegan)</t>
-  </si>
-  <si>
-    <t>Choose from a variety of hummus bowls, including: Creamy, dreamy traditional (warm chickpeas, herbs, pine nuts, extra virgin olive oil); Hummus bi lahme (minced beef shawarma, lemon sauce, parsley, pine nuts, sumac); Chili Baba (garlic chili oil, kimchi, scallions, za’atar); Falafelicious (falafel, fried eggplant, warm chickpeas, pickled cabbage, Arabic pickles, tahini, sumac); Dilly Dilly (dill pickle hummus, dill pickles, cheese curds, crispy onions; Truffle (truffle hummus, roasted wild mushrooms, pine nuts); Baba Gone Wild (create your own from a long list of ingredients); and more. Served with warm or fried pita. (Vegan, vegetarian and gluten-free options available). Plus Baba’s Baklava for dessert (crumbled baklava, pistachio, rose water syrup).</t>
-  </si>
-  <si>
-    <t>This new vendor will feature brand-new blueberry mini donuts, plus classic cheese curds in Cajun (new to the fair!), ranch, garlic and original flavors.</t>
-  </si>
-  <si>
-    <t>This new vendor will feature gluten-free corndogs and funnel cakes (both available in egg- and dairy-free options) and cheese curds (nut-free). Funnel cakes are available in strawberries and cream and apple pie flavors or with powdered sugar, cinnamon or chocolate topping choices.</t>
-  </si>
-  <si>
-    <t>This new vendor features soft serve ice cream in a variety of flavors served in cones and cups and as shakes, sundaes and floats. Plus, banana split on-a-stick, frozen banana on-a-stick and cheesecake on-a-stick - all dipped in chocolate.</t>
-  </si>
-  <si>
-    <t>This new vendor features more than 30 dye-free and natural flavors of handspun cotton candy clouds made with organic cane sugar. Sprinkles and cookie/toppings bar optional. Glow cones and glow buckets of cotton candy available at dusk. Also offering fresh-pressed watermelon juice garnished with a watermelon gummy skewer and an edible straw._x000B__x000B_*New Vendor</t>
-  </si>
-  <si>
-    <t>In the Taste of the Midtown Global Market booth at the International Bazaar, east wall</t>
-  </si>
-  <si>
-    <t>Located on the east side of Underwood Street between Lee &amp; Randall avenues, just south of Little Farm Hands</t>
-  </si>
-  <si>
-    <t>Located on the east side of Underwood Street between Murphy &amp; Lee avenues</t>
-  </si>
-  <si>
-    <t>Located on the south side of Judson Avenue between Nelson and Underwood streets, at Adventure Park</t>
-  </si>
-  <si>
-    <t>Located east of Chambers Street, just south of the Grandstand</t>
+    <t>Al Taco Baba</t>
+  </si>
+  <si>
+    <t>Ba-Sants in Two Varieties – Everything Cream Cheese and Sweet Corn</t>
+  </si>
+  <si>
+    <t>Bacon-Wrapped Waffle Dog</t>
+  </si>
+  <si>
+    <t>Basil Hummus With Spicy Walnut Topping</t>
+  </si>
+  <si>
+    <t>Bee Sting Sundae</t>
+  </si>
+  <si>
+    <t>Birthday Cake Mini Donuts</t>
+  </si>
+  <si>
+    <t>Cheese Curd Stuffed Pizza Pretzel</t>
+  </si>
+  <si>
+    <t>Cheesecake Curds</t>
+  </si>
+  <si>
+    <t>Chicken Momo With Tomato Chutney</t>
+  </si>
+  <si>
+    <t>Cloud Coolers in Three Flavors</t>
+  </si>
+  <si>
+    <t>Crispy Lutefisk Steam Bun</t>
+  </si>
+  <si>
+    <t>Crunchy Balboa</t>
+  </si>
+  <si>
+    <t>Dill Pickle Cheese Curd Taco</t>
+  </si>
+  <si>
+    <t>Donut Delights</t>
+  </si>
+  <si>
+    <t>Fried Butternut Squash Ravioli</t>
+  </si>
+  <si>
+    <t>Fried Green Tomato Sandwich in Two Varieties – BLT and Vegetarian</t>
+  </si>
+  <si>
+    <t>Fruity Cereal Milk Biscuit</t>
+  </si>
+  <si>
+    <t>Galabao</t>
+  </si>
+  <si>
+    <t>Holey Hamloaf Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Hot Honey Cheese Sticks</t>
+  </si>
+  <si>
+    <t>Irish Butter Ice Cream Over Brown Sugar Cinnamon Toast</t>
+  </si>
+  <si>
+    <t>Italian Duo Dunkers</t>
+  </si>
+  <si>
+    <t>Jam’nades in Two Varieties – Blueberry Mint and Strawberry Jalapeño</t>
+  </si>
+  <si>
+    <t>“Kind of a Big Dill” Pickle Lemonade</t>
+  </si>
+  <si>
+    <t>Lemonade Sorbet</t>
+  </si>
+  <si>
+    <t>Loaded Lobster Fries</t>
+  </si>
+  <si>
+    <t>Maui - Sota Sticky Ribs</t>
+  </si>
+  <si>
+    <t>Miami Mango Pickles</t>
+  </si>
+  <si>
+    <t>MinneCookieDough Pie</t>
+  </si>
+  <si>
+    <t>Paletas in Two Flavors – Dill Pickle Lemonade and Mini Donut</t>
+  </si>
+  <si>
+    <t>Pickle Fries</t>
+  </si>
+  <si>
+    <t>Smoked Beef Arepa</t>
+  </si>
+  <si>
+    <t>Sota-cuterie Board</t>
+  </si>
+  <si>
+    <t>Walleye Fritter Pops</t>
+  </si>
+  <si>
+    <t>New Vendor</t>
+  </si>
+  <si>
+    <t>al-taco-baba</t>
+  </si>
+  <si>
+    <t>ba-sants-in-two-varieties</t>
+  </si>
+  <si>
+    <t>bacon-wrapped-waffle-dog</t>
+  </si>
+  <si>
+    <t>basil-hummus-with-spicy-walnut-topping</t>
+  </si>
+  <si>
+    <t>bee-sting-sundae</t>
+  </si>
+  <si>
+    <t>birthday-cake-mini-donuts</t>
+  </si>
+  <si>
+    <t>cheese-curd-stuffed-pizza-pretzel</t>
+  </si>
+  <si>
+    <t>cheesecake-curds</t>
+  </si>
+  <si>
+    <t>chicken-momo-with-tomato-chutney</t>
+  </si>
+  <si>
+    <t>cloud-coolers-in-three-flavors</t>
+  </si>
+  <si>
+    <t>crispy-lutefisk-steam-bun</t>
+  </si>
+  <si>
+    <t>crunchy-balboa</t>
+  </si>
+  <si>
+    <t>dill-pickle-cheese-curd-taco</t>
+  </si>
+  <si>
+    <t>donut-delights</t>
+  </si>
+  <si>
+    <t>fried-butternut-squash-ravioli</t>
+  </si>
+  <si>
+    <t>fried-green-tomato-sandwich-in-two-varieties</t>
+  </si>
+  <si>
+    <t>fruity-cereal-milk-biscuit</t>
+  </si>
+  <si>
+    <t>galabao</t>
+  </si>
+  <si>
+    <t>holey-hamloaf-breakfast-sandwich</t>
+  </si>
+  <si>
+    <t>hot-honey-cheese-sticks</t>
+  </si>
+  <si>
+    <t>irish-butter-ice-cream-over-brown-sugar-cinnamon-toast</t>
+  </si>
+  <si>
+    <t>italian-duo-dunkers</t>
+  </si>
+  <si>
+    <t>jamnades-in-two-varieties</t>
+  </si>
+  <si>
+    <t>kind-of-a-big-dill-pickle-lemonade</t>
+  </si>
+  <si>
+    <t>lemon-sorbet</t>
+  </si>
+  <si>
+    <t>loaded-lobster-fries</t>
+  </si>
+  <si>
+    <t>maui-sota-sticky-ribs</t>
+  </si>
+  <si>
+    <t>miami-mango-pickles</t>
+  </si>
+  <si>
+    <t>minnecookiedough-pie</t>
+  </si>
+  <si>
+    <t>paletas-in-two-flavors</t>
+  </si>
+  <si>
+    <t>pickle-fries</t>
+  </si>
+  <si>
+    <t>smoked-beef-arepa</t>
+  </si>
+  <si>
+    <t>sota-cuterie-board</t>
+  </si>
+  <si>
+    <t>walleye-fritter-pops</t>
+  </si>
+  <si>
+    <t>new-vendor-afro-deli</t>
+  </si>
+  <si>
+    <t>new-vendor-bandstand-concessions</t>
+  </si>
+  <si>
+    <t>new-vendor-churros-and-aguas-fresca</t>
+  </si>
+  <si>
+    <t>new-vendor-momo-dosa</t>
+  </si>
+  <si>
+    <t>new-vendor-peacheys-baking-company</t>
+  </si>
+  <si>
+    <t>new-vendor-tasti-whip</t>
+  </si>
+  <si>
+    <t>new-vendor-wow-fudge</t>
+  </si>
+  <si>
+    <t>Traditional hummus, harissa barbacoa, corn, queso fresco, chili dust, shatta (hot sauce), crema, cilantro and pita puffs.</t>
+  </si>
+  <si>
+    <t>A buttery, crisp and caramelized pastry – a combination of a bagel and croissant: Everything Cream Cheese Ba-Sant is rolled in poppy seeds, sesame seeds, onion flakes, garlic flakes, black pepper and sea salt with a scallion cream cheese filling; Sweet Corn Ba-Sant is filled with fresh sweet corn custard and garnished with crunchy caramel corn.</t>
+  </si>
+  <si>
+    <t>Griddled bacon-wrapped Kramarczuk hot dog served on a Nordic Waffle with cheddar cheese, pickle slices and crispy onions and drizzled with burger sauce.</t>
+  </si>
+  <si>
+    <t>Holy Land hummus blended with fresh basil and topped with a mix of crushed walnuts, crushed red chili pepper, garlic and olive oil. Served with homemade garlic parmesan chips. (Hummus is vegan and gluten-free; chips are vegetarian-friendly with gluten-free option available.)</t>
+  </si>
+  <si>
+    <t>Bridgeman’s vanilla ice cream topped with hot honey, spicy peanuts, whipped cream and a cherry. (Vegetarian, gluten-friendly)</t>
+  </si>
+  <si>
+    <t>Birthday cake-flavored mini donuts coated with vanilla sugar, drizzled with icing, and dusted with sugar crystals and sprinkles.</t>
+  </si>
+  <si>
+    <t>Scratch-made jumbo pizza dough pretzel, hand-twisted and stuffed with Ellsworth cheese curds, pepperoni and a Green Mill blend of Italian spices. Brushed with garlic butter and topped with diced pepperoni, herbs and parmesan cheese. Served with Green Mill pizza sauce.</t>
+  </si>
+  <si>
+    <t>Eli’s Cheesecake pieces covered in funnel cake batter, fried and dusted with powdered sugar and salt. Served with strawberry dipping sauce.</t>
+  </si>
+  <si>
+    <t>Blend of ground chicken, cabbage, onion, ginger and other spices steamed in a dough wrapper. Served with tomato chutney. (Available Aug. 24-29 only) (New Vendor)</t>
+  </si>
+  <si>
+    <t>Three choices of lemonade served with a cotton candy cloud spun onto the drinking straw: Summer Strawberry – strawberry lemonade topped with strawberry fields cotton candy; Happy Huckleberry – huckleberry lemonade topped with blackberry jam cotton candy; and Flower Power – violet lemonade topped with lavender love cotton candy.</t>
+  </si>
+  <si>
+    <t>Steamed lotus bun filled with a blend of cabbage, carrots, cilantro and yum yum sauce, plus Olsen Fish Company lutefisk brined in salt water for 12 hours, covered in sweet hoisin sauce, then baked and topped with sesame seeds.</t>
+  </si>
+  <si>
+    <t>Deep-fried tortilla filled with vegan roast beef, bacon and cheese sauce, plus peppers, onions and a hashbrown patty. Served with vegan Follow Your Heart seasoned sour cream. (Vegan)</t>
+  </si>
+  <si>
+    <t>Fried white cheddar cheese curds, sandwich stacker dill pickles, cream cheese, lettuce and raspberry chipotle sauce in a fried flour tortilla. (Vegetarian)</t>
+  </si>
+  <si>
+    <t>Mini donuts wrapped in bacon, on-a-stick, then deep-fried, topped with a layer of peanut butter and drizzled with raspberry dessert sauce.</t>
+  </si>
+  <si>
+    <t>Deep-fried butternut squash ravioli sprinkled with maple cinnamon sugar. Served with a side of whipped ricotta. (Vegetarian)</t>
+  </si>
+  <si>
+    <t>Two deep-fried locally grown green tomato slices in a crust of Whole Grain Milling Co. High Lysine Cornmeal, with mustard mayonnaise made with Lost Capital Economics Coarse Spicy Ale Mustard, and local lettuce on a toasted brioche bun from The Good Bread Company. BLT is served with bacon from Pastures a Plenty &amp; Hidden Stream Farm. Vegetarian option is served with locally produced charred sweet corn relish.</t>
+  </si>
+  <si>
+    <t>A Betty and Earl’s biscuit made with fruity cereal milk and cereal bits, drizzled with icing flavored with fruity cereal, and topped with more cereal bits.</t>
+  </si>
+  <si>
+    <t>Traditional Hmong-style steamed bun stuffed with ground pork, egg and spices – a recipe from Chef Yia Vang’s mom. Served with choice of Krunchy Chili Oil, Kua Txob Hot Pepper Sauce or Lemongrass Scallion Dressing.</t>
+  </si>
+  <si>
+    <t>Hamline Church Dining Hall hamloaf, tangy glaze, caramelized onions and cheese in a sandwich made with fried egg-in-a-hole toast.</t>
+  </si>
+  <si>
+    <t>Fried Halloumi cheese topped with hot honey and honeycomb crunch. (Vegetarian)</t>
+  </si>
+  <si>
+    <t>Ice cream made with European-style butter served on brown sugar cinnamon toast, drizzled with butter syrup and sprinkled with sea salt flakes.</t>
+  </si>
+  <si>
+    <t>Two Italian-themed hand pies with seasoned parmesan crusts: one with sausage, pepperoni and mozzarella cheese in a 7 Vines Winery red wine-infused pizza sauce; and one with chicken, mushrooms and spinach in a creamy garlic alfredo sauce. Served with garlic butter dipping sauce.</t>
+  </si>
+  <si>
+    <t>Organic lemonade infused with locally made jams in two varieties: Blueberry Mint Jam’nade with a spoonful of blueberry jam and topped with mint sprigs; Strawberry Jalapeño Jam’nade with a spoonful of strawberry jam and jalapeño slices. Served with a boba tea straw. (Vegan, gluten-free)</t>
+  </si>
+  <si>
+    <t>Lemonade mixed with tangy dill pickling spices, craft brewed by Urban Growler and garnished with a crunchy slice of pickle. (Non-alcoholic)</t>
+  </si>
+  <si>
+    <t>Lemon sorbet made with fresh-squeezed lemon juice, lemon zest and mint garnish, served in a frozen half-lemon shell. (Vegan, gluten-free)</t>
+  </si>
+  <si>
+    <t>Lobster in garlic and herb butter, served on a bed of french fries sprinkled with OLD BAY® Seasoning, topped with bacon, drizzled with homemade chipotle mayonnaise, and garnished with green onion and a lemon wedge.</t>
+  </si>
+  <si>
+    <t>Slow-smoked St. Louis-style ribs, caramelized with RC’s Sticky Huli Huli sauce and seasoned with furikake, green onion and cilantro.</t>
+  </si>
+  <si>
+    <t>Dill pickles infused with Miami mango punch.</t>
+  </si>
+  <si>
+    <t>Homemade chocolate chip cookie dough in a flaky pie crust dusted with powdered sugar. Served with choice of vanilla or cinnamon ice cream.</t>
+  </si>
+  <si>
+    <t>Mexican frozen treats on-a-stick in two flavors made locally by La Michoacana Rose: Dill Pickle Lemonade Paleta is lemon-flavored, water-based and includes dill pickle slices (vegan); Mini Donut Paleta is vanilla ice cream with mini donut bits and a whole cinnamon mini donut inside (vegetarian).</t>
+  </si>
+  <si>
+    <t>Crispy, tangy thin-cut dill pickle fries lightly coated in a cornmeal and seasoned mustard batter. Served with a side of chipotle dipping sauce.</t>
+  </si>
+  <si>
+    <t>Smoked roast beef, avocado puree, fresh tomatoes, red onions and arugula in a baked Venezuelan crispy corn pocket. (Gluten-free) (Available Aug. 30-Sept. 4 only)</t>
+  </si>
+  <si>
+    <t>Collection of Minnesota-made meats, cheeses, pickles and other charcuterie board favorites – served on an edible herb-crusted cracker “board.”</t>
+  </si>
+  <si>
+    <t>Smoked walleye mixed with a blend of cheeses, dill pickle relish, fresh garlic and spices, rolled in panko breadcrumbs and deep-fried. Served on-a-stick with a side of comeback sauce and a lemon slice.</t>
+  </si>
+  <si>
+    <t>Afro Deli serves Sambusas in three varieties - beef, chicken or veggie, fried triangle-shaped pastries with choice of meat or lentils, mixed with onions, garlic and cilantro, and served with “Basbaas,” a spicy Somali dipping sauce made with fresh chili peppers, jalapeños, cilantro, onions and lemon juice; Sweet Plantains, pieces of ripe plantains fried until golden brown (vegetarian); Somali Tea, a fragrant, spiced infusion of tea leaves, cardamom, cinnamon, cloves, ginger and nutmeg, served hot or iced (vegetarian); and fresh mango juice (vegetarian).</t>
+  </si>
+  <si>
+    <t>Bandstand Concessions serves the Bandstand Burger, Brucy Lucy bratwurst, Chicken Press sandwich, Lil Smoky Hot Dog, Pretzel Nugs, Facepunch Pretzels, nachos, popcorn, peanuts, assorted candy and a variety of beer, wine, soda, Red Bull drinks, lemonade and bottled water.</t>
+  </si>
+  <si>
+    <t>Churros &amp; Aguas Fresca serves bags of churros with caramel or fudge sauce; churros filled with strawberry, Nutella® or Bavarian cream; churro sundaes with vanilla bean or cinnamon ice cream; and aguas frescas in watermelon, mango, pineapple and strawberry lime flavors.</t>
+  </si>
+  <si>
+    <t>MomoDosa serves official new food Chicken Momo With Tomato Chutney (blend of ground chicken, cabbage, onion, ginger and other spices steamed in a dough wrapper and served with tomato chutney). Plus, Masala Dosa (South Indian crepe of rice and lentil batter, ghee, and served with tomato chutney and coconut chutney); Veggie Pakora (shredded cabbage and onions dipped in chickpea batter, fried and served with mint and cilantro chutney and tamarind chutney, vegan and gluten-free); and Mango Lassi (smoothie made with mangoes, yoghurt, powdered cardamom and cloves). (Aug. 24-29 only)</t>
+  </si>
+  <si>
+    <t>Peachey’s Baking Company serves Amish doughnuts made on-site using traditional Amish recipes, topped with vanilla glaze and served warm; Peanut Butter Cream Doughnut, an over-sized Amish doughnut topped with house-made vanilla custard, peanut butter crumbles and whipped cream; and Southern Sweet Tea, a fresh-brewed tea sweetened with cane sugar.</t>
+  </si>
+  <si>
+    <t>Tasti Whip serves Dole Soft Serve in pineapple, mango, strawberry and lemon flavors; Dole Floats with pineapple, mango, strawberry and lemon-flavored Dole Whip in pineapple juice; Dole pineapple juice; and bottled water.</t>
+  </si>
+  <si>
+    <t>Wow Fudge serves more than 70 varieties of gourmet, handcrafted, old-fashioned copper kettle fudge, including new custom Minnesota State Fair flavors – Strawberry Rhubarb, Blueberry Cheesecake and St. Paul Pickle.</t>
+  </si>
+  <si>
+    <t>MomoDosa serves official new food Chicken Momo With Tomato Chutney (blend of ground chicken, cabbage, onion, ginger and other spices steamed in a dough wrapper and served with tomato chutney). Plus, Masala Dosa (South Indian crepe of rice and lentil batter, ghee, and served with tomato chutney and coconut chutney); Veggie Pakora (shredded cabbage and onions dipped in chickpea batter, fried and served with mint and cilantro chutney and tamarind chutney, vegan and gluten-free); and Mango Lassi (smoothie made with mangoes, yoghurt, powdered cardamom and cloves).(Aug. 24-29 only)</t>
+  </si>
+  <si>
+    <t>Peachey’s Baking Company serves Amish doughnuts made on-site using old Amish recipes, topped with vanilla glaze and served warm; Peanut Butter Cream Doughnut, an over-sized Amish doughnut topped with house-made vanilla custard, peanut butter crumbles and whipped cream; and Southern Sweet Tea, a fresh-brewed tea sweetened with cane sugar.</t>
   </si>
   <si>
     <t>id</t>
@@ -346,7 +382,10 @@
     <t>vendor_id</t>
   </si>
   <si>
-    <t>lic_num</t>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>exhibitor_id</t>
   </si>
   <si>
     <t>site_num</t>
@@ -424,22 +463,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M31" totalsRowShown="0">
-  <autoFilter ref="A1:M31"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0">
+  <autoFilter ref="A1:N42"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="vendor_id"/>
-    <tableColumn id="3" name="lic_num"/>
-    <tableColumn id="4" name="site_num"/>
-    <tableColumn id="5" name="branch_num"/>
-    <tableColumn id="6" name="type"/>
-    <tableColumn id="7" name="sort_order"/>
-    <tableColumn id="8" name="name"/>
-    <tableColumn id="9" name="slug"/>
-    <tableColumn id="10" name="excerpt"/>
-    <tableColumn id="11" name="description"/>
-    <tableColumn id="12" name="directions"/>
-    <tableColumn id="13" name="notes"/>
+    <tableColumn id="3" name="account_code"/>
+    <tableColumn id="4" name="exhibitor_id"/>
+    <tableColumn id="5" name="site_num"/>
+    <tableColumn id="6" name="branch_num"/>
+    <tableColumn id="7" name="type"/>
+    <tableColumn id="8" name="sort_order"/>
+    <tableColumn id="9" name="name"/>
+    <tableColumn id="10" name="slug"/>
+    <tableColumn id="11" name="excerpt"/>
+    <tableColumn id="12" name="description"/>
+    <tableColumn id="13" name="directions"/>
+    <tableColumn id="14" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,582 +770,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>209.1</v>
+        <v>5146.1</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>5146</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>20887</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>781.1</v>
+        <v>2336.1</v>
       </c>
       <c r="C3">
-        <v>781</v>
+        <v>2336</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>20266</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>553.1</v>
+        <v>1476.1</v>
       </c>
       <c r="C4">
-        <v>553</v>
+        <v>1476</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>20413</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>383.1</v>
+        <v>3689.1</v>
       </c>
       <c r="C5">
-        <v>383</v>
+        <v>3689</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>20311</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>440.1</v>
+        <v>1996.1</v>
       </c>
       <c r="C6">
-        <v>440</v>
+        <v>1996</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>20066</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>706.2</v>
+        <v>5052.1</v>
       </c>
       <c r="C7">
-        <v>706</v>
+        <v>5052</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>20826</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>127.1</v>
+        <v>2437.1</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>2437</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>20275</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>763.1</v>
+        <v>1416.1</v>
       </c>
       <c r="C9">
-        <v>763</v>
+        <v>1416</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>20898</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>324.1</v>
+        <v>2764.1</v>
       </c>
       <c r="C10">
-        <v>324</v>
+        <v>2764</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>20790</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>706.1</v>
+        <v>5175.1</v>
       </c>
       <c r="C11">
-        <v>706</v>
+        <v>5175</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>20890</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>605.1</v>
+        <v>3276.1</v>
       </c>
       <c r="C12">
-        <v>605</v>
+        <v>3276</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>20508</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>186.1</v>
+        <v>5836.1</v>
       </c>
       <c r="C13">
-        <v>186</v>
+        <v>5836</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>21030</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>830.1</v>
+        <v>5275.1</v>
       </c>
       <c r="C14">
-        <v>830</v>
+        <v>5275</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>21046</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>68.09999999999999</v>
+        <v>216.1</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>20640</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>67.09999999999999</v>
+        <v>2991.1</v>
       </c>
       <c r="C16">
-        <v>67</v>
+        <v>2991</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>20096</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1313,34 +1395,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>255.1</v>
+        <v>2878.1</v>
       </c>
       <c r="C17">
-        <v>255</v>
+        <v>2878</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>19946</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1348,34 +1433,37 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>218.1</v>
+        <v>1416.1</v>
       </c>
       <c r="C18">
-        <v>218</v>
+        <v>1416</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>20898</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1383,34 +1471,37 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>250.1</v>
+        <v>5659.1</v>
       </c>
       <c r="C19">
-        <v>250</v>
+        <v>5659</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>20981</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="L19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1418,33 +1509,36 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>67.09999999999999</v>
+        <v>3684.1</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>3684</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>20310</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
-        <v>49</v>
-      </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1453,34 +1547,37 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>911.1</v>
+        <v>1968.1</v>
       </c>
       <c r="C21">
-        <v>911</v>
+        <v>1968</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>20056</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1488,34 +1585,37 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>70.09999999999999</v>
+        <v>212.1</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>20074</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="L22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1523,34 +1623,37 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>60.1</v>
+        <v>1288.1</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>1288</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>19969</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="L23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1558,34 +1661,37 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>364.1</v>
+        <v>2000.1</v>
       </c>
       <c r="C24">
-        <v>364</v>
+        <v>2000</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>20067</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>23</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1593,34 +1699,37 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>220.1</v>
+        <v>1476.1</v>
       </c>
       <c r="C25">
-        <v>220</v>
+        <v>1476</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>20413</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1628,34 +1737,37 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>33.1</v>
+        <v>4150.1</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>4150</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>20695</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>25</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>25</v>
       </c>
-      <c r="I26" t="s">
-        <v>55</v>
-      </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1663,37 +1775,37 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>809.1</v>
+        <v>2021.1</v>
       </c>
       <c r="C27">
-        <v>809</v>
+        <v>2021</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>20071</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>26</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1701,37 +1813,37 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>602.1</v>
+        <v>3217.1</v>
       </c>
       <c r="C28">
-        <v>602</v>
+        <v>3217</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>20475</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1739,37 +1851,37 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>876.1</v>
+        <v>5799.1</v>
       </c>
       <c r="C29">
-        <v>876</v>
+        <v>5799</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>21020</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
-        <v>58</v>
-      </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1777,37 +1889,37 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>882.1</v>
+        <v>1548.1</v>
       </c>
       <c r="C30">
-        <v>882</v>
+        <v>1548</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>20409</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>29</v>
       </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1815,37 +1927,455 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>874.1</v>
+        <v>3684.1</v>
       </c>
       <c r="C31">
-        <v>874</v>
+        <v>3684</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>20310</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>30</v>
       </c>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>154.1</v>
+      </c>
+      <c r="C32">
+        <v>154</v>
+      </c>
+      <c r="D32">
+        <v>20338</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2764.2</v>
+      </c>
+      <c r="C33">
+        <v>2764</v>
+      </c>
+      <c r="D33">
+        <v>20965</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>792.2</v>
+      </c>
+      <c r="C34">
+        <v>792</v>
+      </c>
+      <c r="D34">
+        <v>20758</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>230.1</v>
+      </c>
+      <c r="C35">
+        <v>230</v>
+      </c>
+      <c r="D35">
+        <v>19945</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7388.1</v>
+      </c>
+      <c r="C36">
+        <v>7388</v>
+      </c>
+      <c r="D36">
+        <v>21858</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6041.1</v>
+      </c>
+      <c r="C37">
+        <v>6041</v>
+      </c>
+      <c r="D37">
+        <v>21152</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8233.1</v>
+      </c>
+      <c r="C38">
+        <v>8233</v>
+      </c>
+      <c r="D38">
+        <v>21888</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2764.1</v>
+      </c>
+      <c r="C39">
+        <v>2764</v>
+      </c>
+      <c r="D39">
+        <v>20965</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8386.1</v>
+      </c>
+      <c r="C40">
+        <v>8386</v>
+      </c>
+      <c r="D40">
+        <v>21870</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>8535.1</v>
+      </c>
+      <c r="C41">
+        <v>8535</v>
+      </c>
+      <c r="D41">
+        <v>21879</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6202.1</v>
+      </c>
+      <c r="C42">
+        <v>6202</v>
+      </c>
+      <c r="D42">
+        <v>21882</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
